--- a/Data_file/customer_import.xlsx
+++ b/Data_file/customer_import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Desktop\Vender customer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Documents\Git_apcball\Project1\Data_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6142" uniqueCount="3034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6144" uniqueCount="3036">
   <si>
     <t>name</t>
   </si>
@@ -9132,6 +9132,12 @@
   </si>
   <si>
     <t>สาขายโสธร: 364 ม.3</t>
+  </si>
+  <si>
+    <t>Account Receivable</t>
+  </si>
+  <si>
+    <t>Account Payable</t>
   </si>
 </sst>
 </file>
@@ -9154,12 +9160,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -9174,13 +9186,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -9461,10 +9474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T476"/>
+  <dimension ref="A1:V476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9484,9 +9497,11 @@
     <col min="17" max="17" width="11.77734375" customWidth="1"/>
     <col min="18" max="18" width="17.77734375" customWidth="1"/>
     <col min="20" max="20" width="10.5546875" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" customWidth="1"/>
+    <col min="22" max="22" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>2821</v>
       </c>
@@ -9547,8 +9562,14 @@
       <c r="T1" t="s">
         <v>2823</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="4" t="s">
+        <v>3034</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>2827</v>
       </c>
@@ -9592,7 +9613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>2830</v>
       </c>
@@ -9636,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2833</v>
       </c>
@@ -9689,7 +9710,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>2836</v>
       </c>
@@ -9736,7 +9757,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>2839</v>
       </c>
@@ -9789,7 +9810,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>2842</v>
       </c>
@@ -9842,7 +9863,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>2845</v>
       </c>
@@ -9895,7 +9916,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>2848</v>
       </c>
@@ -9948,7 +9969,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>2851</v>
       </c>
@@ -10001,7 +10022,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -10054,7 +10075,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -10107,7 +10128,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -10160,7 +10181,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -10213,7 +10234,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -10266,7 +10287,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>55</v>
       </c>
